--- a/RJ_Reconstrucao_Lutjanidae_2024_08_07.xlsx
+++ b/RJ_Reconstrucao_Lutjanidae_2024_08_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reconstrucao_estatistica_pesqueira\reconstrucao_estatistica_brasileira\RE\Reconstru--o\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503E51FE-DD32-48FB-9952-C0B6ED23AAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8FBE80-B1A7-4AFE-BBF1-4556D75B28B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
   <si>
     <t>Ano</t>
   </si>
@@ -78,6 +67,249 @@
   </si>
   <si>
     <t>Olho_vidro_art</t>
+  </si>
+  <si>
+    <t>59948.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>68270.5</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>71680.5</t>
+  </si>
+  <si>
+    <t>72767.5</t>
+  </si>
+  <si>
+    <t>75531.5</t>
+  </si>
+  <si>
+    <t>47463.5</t>
+  </si>
+  <si>
+    <t>50979.5</t>
+  </si>
+  <si>
+    <t>50774.5</t>
+  </si>
+  <si>
+    <t>61937.5</t>
+  </si>
+  <si>
+    <t>60891.5</t>
+  </si>
+  <si>
+    <t>61929.5</t>
+  </si>
+  <si>
+    <t>64500.5</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>54219.5</t>
+  </si>
+  <si>
+    <t>55246.5</t>
+  </si>
+  <si>
+    <t>57725.5</t>
+  </si>
+  <si>
+    <t>50487.5</t>
+  </si>
+  <si>
+    <t>53171.5</t>
+  </si>
+  <si>
+    <t>65355.5</t>
+  </si>
+  <si>
+    <t>66437.5</t>
+  </si>
+  <si>
+    <t>69510.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>60584.5</t>
+  </si>
+  <si>
+    <t>61638.5</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>79198.5</t>
+  </si>
+  <si>
+    <t>80244.5</t>
+  </si>
+  <si>
+    <t>83574.5</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>0.121</t>
+  </si>
+  <si>
+    <t>0.4845</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>2.61</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.304</t>
+  </si>
+  <si>
+    <t>0.0905</t>
+  </si>
+  <si>
+    <t>0.541</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>0.176</t>
+  </si>
+  <si>
+    <t>0.117</t>
+  </si>
+  <si>
+    <t>0.017</t>
+  </si>
+  <si>
+    <t>0.7331</t>
+  </si>
+  <si>
+    <t>0.6956</t>
+  </si>
+  <si>
+    <t>0.0053</t>
+  </si>
+  <si>
+    <t>0.1292</t>
+  </si>
+  <si>
+    <t>0.203</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
+    <t>0.0576</t>
+  </si>
+  <si>
+    <t>0.0063</t>
+  </si>
+  <si>
+    <t>0.4966</t>
+  </si>
+  <si>
+    <t>0.4025</t>
+  </si>
+  <si>
+    <t>0.5147</t>
+  </si>
+  <si>
+    <t>0.0376</t>
+  </si>
+  <si>
+    <t>0.199</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>0.0422</t>
+  </si>
+  <si>
+    <t>0.058</t>
+  </si>
+  <si>
+    <t>0.0313</t>
+  </si>
+  <si>
+    <t>0.1491</t>
+  </si>
+  <si>
+    <t>0.3236</t>
+  </si>
+  <si>
+    <t>0.04715</t>
+  </si>
+  <si>
+    <t>0.19635</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>0.0775</t>
+  </si>
+  <si>
+    <t>0.0471</t>
+  </si>
+  <si>
+    <t>0.0378</t>
+  </si>
+  <si>
+    <t>0.608</t>
+  </si>
+  <si>
+    <t>0.0425</t>
+  </si>
+  <si>
+    <t>0.18855</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t>0.5802</t>
+  </si>
+  <si>
+    <t>0.067</t>
+  </si>
+  <si>
+    <t>0.0669</t>
+  </si>
+  <si>
+    <t>0.0315</t>
   </si>
 </sst>
 </file>
@@ -188,7 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -215,6 +447,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,7 +742,7 @@
   <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
@@ -1238,19 +1474,19 @@
       <c r="M47" s="9">
         <v>57997</v>
       </c>
-      <c r="N47" s="9">
-        <v>59948.5</v>
+      <c r="N47" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>1996</v>
       </c>
-      <c r="B48" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="L48" s="9">
-        <v>68270.5</v>
+      <c r="B48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="M48" s="9">
         <v>69300</v>
@@ -1263,20 +1499,20 @@
       <c r="A49" s="6">
         <v>1997</v>
       </c>
-      <c r="B49" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G49">
-        <v>0.5</v>
-      </c>
-      <c r="L49" s="9">
-        <v>71680.5</v>
-      </c>
-      <c r="M49" s="9">
-        <v>72767.5</v>
-      </c>
-      <c r="N49" s="9">
-        <v>75531.5</v>
+      <c r="B49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -1286,17 +1522,17 @@
       <c r="B50" s="1">
         <v>1</v>
       </c>
-      <c r="G50">
-        <v>0.5</v>
-      </c>
-      <c r="L50" s="9">
-        <v>47463.5</v>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="M50" s="9">
         <v>48488</v>
       </c>
-      <c r="N50" s="9">
-        <v>50979.5</v>
+      <c r="N50" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -1306,8 +1542,8 @@
       <c r="B51" s="1">
         <v>1</v>
       </c>
-      <c r="G51">
-        <v>1.5</v>
+      <c r="G51" t="s">
+        <v>15</v>
       </c>
       <c r="L51" s="9">
         <v>47259</v>
@@ -1315,8 +1551,8 @@
       <c r="M51" s="9">
         <v>48252</v>
       </c>
-      <c r="N51" s="9">
-        <v>50774.5</v>
+      <c r="N51" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -1326,8 +1562,8 @@
       <c r="B52" s="1">
         <v>1</v>
       </c>
-      <c r="G52">
-        <v>0.5</v>
+      <c r="G52" t="s">
+        <v>17</v>
       </c>
       <c r="L52" s="9">
         <v>58040</v>
@@ -1335,31 +1571,31 @@
       <c r="M52" s="9">
         <v>59096</v>
       </c>
-      <c r="N52" s="9">
-        <v>61937.5</v>
+      <c r="N52" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>2001</v>
       </c>
-      <c r="B53" s="1">
-        <v>0.5</v>
+      <c r="B53" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C53">
         <v>48</v>
       </c>
-      <c r="G53">
-        <v>0.5</v>
-      </c>
-      <c r="L53" s="9">
-        <v>60891.5</v>
-      </c>
-      <c r="M53" s="9">
-        <v>61929.5</v>
-      </c>
-      <c r="N53" s="9">
-        <v>64500.5</v>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -1369,20 +1605,20 @@
       <c r="B54" s="1">
         <v>1</v>
       </c>
-      <c r="C54">
-        <v>9.5</v>
-      </c>
-      <c r="G54">
-        <v>0.5</v>
-      </c>
-      <c r="L54" s="9">
-        <v>54219.5</v>
-      </c>
-      <c r="M54" s="9">
-        <v>55246.5</v>
-      </c>
-      <c r="N54" s="9">
-        <v>57725.5</v>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -1395,17 +1631,17 @@
       <c r="C55">
         <v>10</v>
       </c>
-      <c r="G55">
-        <v>0.5</v>
+      <c r="G55" t="s">
+        <v>17</v>
       </c>
       <c r="L55" s="9">
         <v>49482</v>
       </c>
-      <c r="M55" s="9">
-        <v>50487.5</v>
-      </c>
-      <c r="N55" s="9">
-        <v>53171.5</v>
+      <c r="M55" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -1421,37 +1657,37 @@
       <c r="G56">
         <v>1</v>
       </c>
-      <c r="L56" s="9">
-        <v>65355.5</v>
-      </c>
-      <c r="M56" s="9">
-        <v>66437.5</v>
-      </c>
-      <c r="N56" s="9">
-        <v>69510.5</v>
+      <c r="L56" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>2005</v>
       </c>
-      <c r="B57" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="C57">
-        <v>10.5</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G57">
-        <v>3.5</v>
-      </c>
-      <c r="L57" s="9">
-        <v>60584.5</v>
-      </c>
-      <c r="M57" s="9">
-        <v>61638.5</v>
+      <c r="B57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>39</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="N57" s="9">
         <v>64770</v>
@@ -1461,17 +1697,17 @@
       <c r="A58" s="6">
         <v>2006</v>
       </c>
-      <c r="B58" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="C58">
-        <v>8.5</v>
-      </c>
-      <c r="F58" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G58">
-        <v>3.5</v>
+      <c r="B58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>39</v>
       </c>
       <c r="L58" s="9">
         <v>63418</v>
@@ -1490,8 +1726,8 @@
       <c r="B59" s="1">
         <v>2</v>
       </c>
-      <c r="C59">
-        <v>9.5</v>
+      <c r="C59" t="s">
+        <v>28</v>
       </c>
       <c r="F59" s="1">
         <v>1</v>
@@ -1499,25 +1735,25 @@
       <c r="G59">
         <v>5</v>
       </c>
-      <c r="L59" s="9">
-        <v>79198.5</v>
-      </c>
-      <c r="M59" s="9">
-        <v>80244.5</v>
-      </c>
-      <c r="N59" s="9">
-        <v>83574.5</v>
+      <c r="L59" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>2008</v>
       </c>
-      <c r="B60" s="7">
-        <v>1.37</v>
-      </c>
-      <c r="C60" s="4">
-        <v>0.121</v>
+      <c r="B60" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -1527,11 +1763,11 @@
       <c r="A61" s="6">
         <v>2009</v>
       </c>
-      <c r="B61" s="7">
-        <v>0.48449999999999999</v>
-      </c>
-      <c r="C61" s="4">
-        <v>7.0000000000000001E-3</v>
+      <c r="B61" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
@@ -1541,11 +1777,11 @@
       <c r="A62" s="6">
         <v>2010</v>
       </c>
-      <c r="B62" s="7">
-        <v>2.61</v>
-      </c>
-      <c r="C62" s="4">
-        <v>0.04</v>
+      <c r="B62" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
@@ -1555,11 +1791,11 @@
       <c r="A63" s="6">
         <v>2011</v>
       </c>
-      <c r="B63" s="7">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="C63" s="4">
-        <v>9.0499999999999997E-2</v>
+      <c r="B63" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
@@ -1569,11 +1805,11 @@
       <c r="A64" s="6">
         <v>2012</v>
       </c>
-      <c r="B64" s="7">
-        <v>1.429</v>
-      </c>
-      <c r="C64" s="4">
-        <v>0.54100000000000004</v>
+      <c r="B64" s="16">
+        <v>1429</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
@@ -1583,8 +1819,8 @@
       <c r="A65" s="6">
         <v>2013</v>
       </c>
-      <c r="B65" s="7">
-        <v>1.83</v>
+      <c r="B65" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C65" s="4"/>
       <c r="L65" s="9"/>
@@ -1595,11 +1831,11 @@
       <c r="A66" s="6">
         <v>2014</v>
       </c>
-      <c r="B66" s="7">
-        <v>1.907</v>
-      </c>
-      <c r="C66" s="4">
-        <v>0.17600000000000002</v>
+      <c r="B66" s="16">
+        <v>1907</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
@@ -1609,11 +1845,11 @@
       <c r="A67" s="6">
         <v>2015</v>
       </c>
-      <c r="B67" s="2">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="C67" s="3">
-        <v>1.7000000000000001E-2</v>
+      <c r="B67" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
@@ -1631,27 +1867,27 @@
       <c r="A69" s="6">
         <v>2017</v>
       </c>
-      <c r="B69" s="2">
-        <v>0.73309999999999997</v>
-      </c>
-      <c r="C69" s="3">
-        <v>0.6956</v>
-      </c>
-      <c r="D69" s="5">
-        <v>5.3E-3</v>
+      <c r="B69" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="E69" s="3"/>
-      <c r="F69" s="2">
-        <v>0.12919999999999998</v>
-      </c>
-      <c r="G69" s="3">
-        <v>0.20299999999999999</v>
-      </c>
-      <c r="I69" s="2">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="J69" s="3">
-        <v>17.600000000000001</v>
+      <c r="F69" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="9"/>
@@ -1662,21 +1898,21 @@
       <c r="A70" s="6">
         <v>2018</v>
       </c>
-      <c r="B70" s="2">
-        <v>1.2817000000000001</v>
-      </c>
-      <c r="C70" s="3">
-        <v>5.7599999999999998E-2</v>
-      </c>
-      <c r="D70" s="5">
-        <v>6.3E-3</v>
+      <c r="B70" s="17">
+        <v>12817</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E70" s="3"/>
-      <c r="F70" s="2">
-        <v>0.49660000000000004</v>
-      </c>
-      <c r="I70" s="2">
-        <v>0.40250000000000002</v>
+      <c r="F70" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
@@ -1686,29 +1922,29 @@
       <c r="A71" s="6">
         <v>2019</v>
       </c>
-      <c r="B71" s="2">
-        <v>0.51470000000000005</v>
-      </c>
-      <c r="C71" s="3">
-        <v>3.7600000000000001E-2</v>
-      </c>
-      <c r="D71" s="5">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="E71" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F71" s="2">
-        <v>1.2732999999999994</v>
-      </c>
-      <c r="G71" s="3">
-        <v>4.2200000000000001E-2</v>
-      </c>
-      <c r="H71" s="12">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="K71" s="2">
-        <v>3.1300000000000001E-2</v>
+      <c r="B71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F71" s="17">
+        <v>12733</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
@@ -1718,23 +1954,23 @@
       <c r="A72" s="6">
         <v>2020</v>
       </c>
-      <c r="B72" s="2">
-        <v>0.14910000000000001</v>
-      </c>
-      <c r="D72" s="5">
-        <v>0.3236</v>
-      </c>
-      <c r="E72" s="3">
-        <v>4.7149999999999997E-2</v>
-      </c>
-      <c r="F72" s="2">
-        <v>0.19635000000000002</v>
-      </c>
-      <c r="G72" s="3">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="H72" s="12">
-        <v>7.7499999999999999E-2</v>
+      <c r="B72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
@@ -1744,26 +1980,26 @@
       <c r="A73" s="6">
         <v>2021</v>
       </c>
-      <c r="B73" s="2">
-        <v>4.710000000000001E-2</v>
-      </c>
-      <c r="C73" s="3">
-        <v>3.78E-2</v>
-      </c>
-      <c r="D73" s="5">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="E73" s="3">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="F73" s="2">
-        <v>0.18855000000000002</v>
-      </c>
-      <c r="G73" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="I73" s="2">
-        <v>4.4999999999999998E-2</v>
+      <c r="B73" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
@@ -1773,20 +2009,20 @@
       <c r="A74" s="6">
         <v>2022</v>
       </c>
-      <c r="B74" s="2">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="D74" s="5">
-        <v>0.58020000000000005</v>
-      </c>
-      <c r="E74" s="3">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="F74" s="2">
-        <v>6.6900000000000001E-2</v>
-      </c>
-      <c r="I74" s="2">
-        <v>3.15E-2</v>
+      <c r="B74" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
